--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.847819082318135</v>
+        <v>2.015538290187971</v>
       </c>
       <c r="D2">
-        <v>0.06480430043065311</v>
+        <v>0.05622514165469839</v>
       </c>
       <c r="E2">
         <v>1.083554776337472</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.4614602099592335</v>
+        <v>0.5180487032370978</v>
       </c>
       <c r="D3">
-        <v>0.6445282382867261</v>
+        <v>0.6095952581003576</v>
       </c>
       <c r="E3">
         <v>1.083554776337472</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.947753024785988</v>
+        <v>3.491171119643299</v>
       </c>
       <c r="D4">
-        <v>0.003245115460345671</v>
+        <v>0.002067419261402081</v>
       </c>
       <c r="E4">
         <v>1.083554776337472</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>5.534762222708084</v>
+        <v>3.89064449880166</v>
       </c>
       <c r="D5">
-        <v>3.60992775672031E-08</v>
+        <v>0.0007871629786997403</v>
       </c>
       <c r="E5">
         <v>1.083554776337472</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.167992347644946</v>
+        <v>-1.244141102417563</v>
       </c>
       <c r="D6">
-        <v>0.2429756772611755</v>
+        <v>0.2265406139131483</v>
       </c>
       <c r="E6">
         <v>1.037049261222587</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.067835810931209</v>
+        <v>1.905941536588476</v>
       </c>
       <c r="D7">
-        <v>0.2857480883856072</v>
+        <v>0.06980692703372271</v>
       </c>
       <c r="E7">
         <v>1.037049261222587</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>4.77418107645645</v>
+        <v>3.913927251796425</v>
       </c>
       <c r="D8">
-        <v>1.961131550931583E-06</v>
+        <v>0.0007438140685469552</v>
       </c>
       <c r="E8">
         <v>1.037049261222587</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.508663686093292</v>
+        <v>2.327901047045844</v>
       </c>
       <c r="D9">
-        <v>0.01221247530538383</v>
+        <v>0.02951094314168223</v>
       </c>
       <c r="E9">
         <v>1.069322351078461</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>4.411927163068105</v>
+        <v>2.936780575329323</v>
       </c>
       <c r="D10">
-        <v>1.089688322286619E-05</v>
+        <v>0.007631856663832703</v>
       </c>
       <c r="E10">
         <v>1.069322351078461</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>3.491665981266173</v>
+        <v>2.722735907843852</v>
       </c>
       <c r="D11">
-        <v>0.0004924430565313997</v>
+        <v>0.01242717312223518</v>
       </c>
       <c r="E11">
         <v>1.014098845810826</v>
